--- a/vat_invoice/utils/output.xlsx
+++ b/vat_invoice/utils/output.xlsx
@@ -1071,7 +1071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908ec3f3-3420-4ac4-a55b-db5ebc3a7998}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ab1b374-528d-413d-b73c-a0759ad4d18e}">
   <dimension ref="A1:ZZ34"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -25312,7 +25312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d950aab0-46d0-4dea-94f4-7eca7d4ff9f7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2b0cb276-e0aa-4513-8531-e684eb94bfa5}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/vat_invoice/utils/output.xlsx
+++ b/vat_invoice/utils/output.xlsx
@@ -1071,7 +1071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ab1b374-528d-413d-b73c-a0759ad4d18e}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ebad27c-ac27-4121-b64c-2a526a728279}">
   <dimension ref="A1:ZZ34"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -25312,7 +25312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2b0cb276-e0aa-4513-8531-e684eb94bfa5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51dde15f-b448-4bc0-825c-c2290b65b631}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/vat_invoice/utils/output.xlsx
+++ b/vat_invoice/utils/output.xlsx
@@ -1071,7 +1071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ebad27c-ac27-4121-b64c-2a526a728279}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5d212c1c-db51-45e0-a5ef-ec9324af2689}">
   <dimension ref="A1:ZZ34"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -25312,7 +25312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51dde15f-b448-4bc0-825c-c2290b65b631}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9046f5c9-310f-4b66-a233-42be7e17cce9}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>

--- a/vat_invoice/utils/output.xlsx
+++ b/vat_invoice/utils/output.xlsx
@@ -1071,7 +1071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5d212c1c-db51-45e0-a5ef-ec9324af2689}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f6ee8423-983e-47c7-9e6f-7ca9bb46895d}">
   <dimension ref="A1:ZZ34"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
@@ -25312,7 +25312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9046f5c9-310f-4b66-a233-42be7e17cce9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9c3b7423-c640-4678-92ff-603f7e49b377}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
